--- a/children/ValueSet-KLHealthNurseInterventions.xlsx
+++ b/children/ValueSet-KLHealthNurseInterventions.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-06-21T14:15:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-KLHealthNurseInterventions.xlsx
+++ b/children/ValueSet-KLHealthNurseInterventions.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:15:43+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-KLHealthNurseInterventions.xlsx
+++ b/children/ValueSet-KLHealthNurseInterventions.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-06-24T13:11:12+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-KLHealthNurseInterventions.xlsx
+++ b/children/ValueSet-KLHealthNurseInterventions.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T13:11:12+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-KLHealthNurseInterventions.xlsx
+++ b/children/ValueSet-KLHealthNurseInterventions.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-07-01T22:52:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -80,6 +80,12 @@
     <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -108,9 +114,6 @@
   </si>
   <si>
     <t>6cbf8b19-5aff-4f6f-a7dc-9a411197bcff</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -265,7 +268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -367,20 +370,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -405,7 +416,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -413,29 +424,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -460,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -468,29 +479,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -515,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -523,29 +534,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -578,29 +589,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -633,29 +644,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -688,29 +699,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/children/ValueSet-KLHealthNurseInterventions.xlsx
+++ b/children/ValueSet-KLHealthNurseInterventions.xlsx
@@ -7,12 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from FBOE" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from FBOE 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from FBOE 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from FBOE 4" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from FBOE 5" r:id="rId8" sheetId="6"/>
-    <sheet name="Include from FBOE 6" r:id="rId9" sheetId="7"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #4" r:id="rId8" sheetId="6"/>
+    <sheet name="Include #5" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T22:52:03+02:00</t>
+    <t>2024-10-31T20:37:15+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
